--- a/data/accession numbers and sequences info.xlsx
+++ b/data/accession numbers and sequences info.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssheikh1\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15495" windowHeight="9525" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="recipient &amp; donor sequences" sheetId="1" r:id="rId1"/>
+    <sheet name="related species" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,241 +25,538 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
   <si>
     <t xml:space="preserve">Recipient </t>
   </si>
   <si>
-    <t xml:space="preserve">Gene name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gene abbreviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accession number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type of sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of accession number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recipient organism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accession number for full CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glucose-1-phosphatase/inositol phosphatase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK507686.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mRNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun et al supplementary 0004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B. mori</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sequence provided in not a full CDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alginate lyase/alcohol dehydrogenase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlgL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FY025403.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chitinase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC438817.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAD-dependent epimerase/dehydratase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CK508225.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycerophosphoryl diester phosphodiesterase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIpQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY918625.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kynureninase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP179211.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aromatic ring-opening dioxygenase LigB subunit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LigB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AV398764.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-methyltryptophan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BY924568.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-fructofuranosidase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU001975.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypothetical protein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP125455.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma-glutamyltranspeptidase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gtg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accession number provided in Sun et al paper reference an inaccessible database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cysteine synthase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycosyl hydrolase/alpha-glucosidase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donor organism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YP_003295806.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protein</t>
+    <t>Gene name</t>
+  </si>
+  <si>
+    <t>Gene abbreviation</t>
+  </si>
+  <si>
+    <t>Accession number</t>
+  </si>
+  <si>
+    <t>Type of sequence</t>
+  </si>
+  <si>
+    <t>Source of accession number</t>
+  </si>
+  <si>
+    <t>Recipient organism</t>
+  </si>
+  <si>
+    <t>Additional comments</t>
+  </si>
+  <si>
+    <t>Accession number for full CDS</t>
+  </si>
+  <si>
+    <t>glucose-1-phosphatase/inositol phosphatase</t>
+  </si>
+  <si>
+    <t>Agp</t>
+  </si>
+  <si>
+    <t>CK507686.1</t>
+  </si>
+  <si>
+    <t>mRNA</t>
+  </si>
+  <si>
+    <t>Sun et al supplementary 0004</t>
+  </si>
+  <si>
+    <t>B. mori</t>
+  </si>
+  <si>
+    <t>The sequence provided in not a full CDS</t>
+  </si>
+  <si>
+    <t>alginate lyase/alcohol dehydrogenase</t>
+  </si>
+  <si>
+    <t>AlgL</t>
+  </si>
+  <si>
+    <t>FY025403.1</t>
+  </si>
+  <si>
+    <t>chitinase</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>DC438817.1</t>
+  </si>
+  <si>
+    <t>NAD-dependent epimerase/dehydratase</t>
+  </si>
+  <si>
+    <t>Epi</t>
+  </si>
+  <si>
+    <t>CK508225.1</t>
+  </si>
+  <si>
+    <t>Glycerophosphoryl diester phosphodiesterase</t>
+  </si>
+  <si>
+    <t>GIpQ</t>
+  </si>
+  <si>
+    <t>BY918625.1</t>
+  </si>
+  <si>
+    <t>kynureninase</t>
+  </si>
+  <si>
+    <t>Kyn</t>
+  </si>
+  <si>
+    <t>BP179211.1</t>
+  </si>
+  <si>
+    <t>aromatic ring-opening dioxygenase LigB subunit</t>
+  </si>
+  <si>
+    <t>LigB</t>
+  </si>
+  <si>
+    <t>AV398764.1</t>
+  </si>
+  <si>
+    <t>N-methyltryptophan</t>
+  </si>
+  <si>
+    <t>Mtox</t>
+  </si>
+  <si>
+    <t>BY924568.1</t>
+  </si>
+  <si>
+    <t>beta-fructofuranosidase</t>
+  </si>
+  <si>
+    <t>Suc1</t>
+  </si>
+  <si>
+    <t>AU001975.1</t>
+  </si>
+  <si>
+    <t>hypothetical protein</t>
+  </si>
+  <si>
+    <t>Hyp</t>
+  </si>
+  <si>
+    <t>BP125455.1</t>
+  </si>
+  <si>
+    <t>gamma-glutamyltranspeptidase</t>
+  </si>
+  <si>
+    <t>Gtg</t>
+  </si>
+  <si>
+    <t>Accession number provided in Sun et al paper reference an inaccessible database</t>
+  </si>
+  <si>
+    <t>cysteine synthase</t>
+  </si>
+  <si>
+    <t>Cys</t>
+  </si>
+  <si>
+    <t>glycosyl hydrolase/alpha-glucosidase</t>
+  </si>
+  <si>
+    <t>GH31</t>
+  </si>
+  <si>
+    <t>Donor</t>
+  </si>
+  <si>
+    <t>Donor organism</t>
+  </si>
+  <si>
+    <t>YP_003295806.1</t>
+  </si>
+  <si>
+    <t>Protein</t>
   </si>
   <si>
     <t xml:space="preserve">Zhu,.et al </t>
   </si>
   <si>
-    <t xml:space="preserve">Edwardsiella tarda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP_241604.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacillus halodurans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YP_001476375.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serratia proteamaculans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZP_05974183.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Providencia rustigianii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP_249038.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudomonas aeruginosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZP_07053169.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Listeria grayi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XP_002485623.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talaromyces stipitatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZP_06189604.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serratia odorifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucrose-6-phosphate hydrolase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YP_081250.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bacillus licheniformis</t>
+    <t>Edwardsiella tarda</t>
+  </si>
+  <si>
+    <t>NP_241604.1</t>
+  </si>
+  <si>
+    <t>Bacillus halodurans</t>
+  </si>
+  <si>
+    <t>YP_001476375.1</t>
+  </si>
+  <si>
+    <t>Serratia proteamaculans</t>
+  </si>
+  <si>
+    <t>ZP_05974183.2</t>
+  </si>
+  <si>
+    <t>Providencia rustigianii</t>
+  </si>
+  <si>
+    <t>NP_249038.1</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa</t>
+  </si>
+  <si>
+    <t>ZP_07053169.1</t>
+  </si>
+  <si>
+    <t>Listeria grayi</t>
+  </si>
+  <si>
+    <t>XP_002485623.1</t>
+  </si>
+  <si>
+    <t>Talaromyces stipitatus</t>
+  </si>
+  <si>
+    <t>ZP_06189604.1</t>
+  </si>
+  <si>
+    <t>Serratia odorifera</t>
+  </si>
+  <si>
+    <t>sucrose-6-phosphate hydrolase</t>
+  </si>
+  <si>
+    <t>YP_081250.1</t>
+  </si>
+  <si>
+    <t>Bacillus licheniformis</t>
   </si>
   <si>
     <t xml:space="preserve">Accession number not provided in Zhu et al paper </t>
   </si>
   <si>
-    <t xml:space="preserve">ZP_06637018.1</t>
+    <t>ZP_06637018.1</t>
+  </si>
+  <si>
+    <t>YP_003295806.1 redirects to new accession number: WP_015683358.1 of a multi-species sequence; blast against e. tarda leads to: ACY84595.1</t>
+  </si>
+  <si>
+    <t>BLAST error using protein sequence</t>
+  </si>
+  <si>
+    <t>AK382789.1</t>
+  </si>
+  <si>
+    <t>CP000826.1</t>
+  </si>
+  <si>
+    <t>XM_012690879.2</t>
+  </si>
+  <si>
+    <t>AB104488.1</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>CDS accession number</t>
+  </si>
+  <si>
+    <t>bacterial</t>
+  </si>
+  <si>
+    <t>CP028813.1</t>
+  </si>
+  <si>
+    <t>kaerogenes</t>
+  </si>
+  <si>
+    <t>LR134253</t>
+  </si>
+  <si>
+    <t>LR134196.1</t>
+  </si>
+  <si>
+    <t>HMEL011458</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>NCBI</t>
+  </si>
+  <si>
+    <t>Ensembl Metazoa</t>
+  </si>
+  <si>
+    <t>CP000440.1</t>
+  </si>
+  <si>
+    <t>AM902716.1</t>
+  </si>
+  <si>
+    <t>Lepidopteran</t>
+  </si>
+  <si>
+    <t>Edwardsiella ictaluri</t>
+  </si>
+  <si>
+    <t>Klebsiella pneumoniae</t>
+  </si>
+  <si>
+    <t>Heliconius melpomene</t>
+  </si>
+  <si>
+    <t>Burkholderia ambifaria</t>
+  </si>
+  <si>
+    <t>Bordetella petrii</t>
+  </si>
+  <si>
+    <t> BA000004.3</t>
+  </si>
+  <si>
+    <t>HMEL003016</t>
+  </si>
+  <si>
+    <t>Listeria innocua</t>
+  </si>
+  <si>
+    <t>Mycobacterium smegmatis</t>
+  </si>
+  <si>
+    <t>AL596173.1</t>
+  </si>
+  <si>
+    <t>CP000480.1</t>
+  </si>
+  <si>
+    <t>Aeromonas hydrophila</t>
+  </si>
+  <si>
+    <t>HMEL009672</t>
+  </si>
+  <si>
+    <t>CP006579.1</t>
+  </si>
+  <si>
+    <t>NM_001311726.1</t>
+  </si>
+  <si>
+    <t>Papilio polytes</t>
+  </si>
+  <si>
+    <t>Chi_CP000302.1</t>
+  </si>
+  <si>
+    <t>CP021164.1</t>
+  </si>
+  <si>
+    <t>Shewanella denitrificans</t>
+  </si>
+  <si>
+    <t>Serratia marcescens</t>
+  </si>
+  <si>
+    <t>XM_004931326.3</t>
+  </si>
+  <si>
+    <t>LR134189.1</t>
+  </si>
+  <si>
+    <t>CP025705.1</t>
+  </si>
+  <si>
+    <t>chromohalobacter_salexigens</t>
+  </si>
+  <si>
+    <t>CP000285.1</t>
+  </si>
+  <si>
+    <t>HMEL009928</t>
+  </si>
+  <si>
+    <t>BX571867.1</t>
+  </si>
+  <si>
+    <t>CP029736.1</t>
+  </si>
+  <si>
+    <t>CP023255.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE005673.1 </t>
+  </si>
+  <si>
+    <t>GlpQ</t>
+  </si>
+  <si>
+    <t>HMEL011728</t>
+  </si>
+  <si>
+    <t>HG916826.1</t>
+  </si>
+  <si>
+    <t>XM_012692586.2</t>
+  </si>
+  <si>
+    <t>Aaeromonas caviae</t>
+  </si>
+  <si>
+    <t>Photorhabdus luminescens</t>
+  </si>
+  <si>
+    <t>Providencia rettgeri</t>
+  </si>
+  <si>
+    <t>Caulobacter crescentus</t>
+  </si>
+  <si>
+    <t>Pseudomonas pseudoalcaligenes</t>
+  </si>
+  <si>
+    <t>NM_001171914.1</t>
+  </si>
+  <si>
+    <t>sequence determined using donor sequence as BLAST query</t>
+  </si>
+  <si>
+    <t>CP002985.1</t>
+  </si>
+  <si>
+    <t>AM889285.1</t>
+  </si>
+  <si>
+    <t>HMEL005649</t>
+  </si>
+  <si>
+    <t>CP002156.1</t>
+  </si>
+  <si>
+    <t>LR134161.1</t>
+  </si>
+  <si>
+    <t>LR134117.1</t>
+  </si>
+  <si>
+    <t>XM_021349235.1</t>
+  </si>
+  <si>
+    <t>CP016734.1</t>
+  </si>
+  <si>
+    <t>Lactococcus lactis</t>
+  </si>
+  <si>
+    <t>XM_021327064.1</t>
+  </si>
+  <si>
+    <t>HMEL010513</t>
+  </si>
+  <si>
+    <t>CP022988.1</t>
+  </si>
+  <si>
+    <t>CP014107.1</t>
+  </si>
+  <si>
+    <t>Helicoverpa armigera</t>
+  </si>
+  <si>
+    <t>Lactobacillus delbrueckii</t>
+  </si>
+  <si>
+    <t>Staphylococcus hominis</t>
+  </si>
+  <si>
+    <t>Yersinia enterocolitica</t>
+  </si>
+  <si>
+    <t>Acidithiobacillus ferrivorans</t>
+  </si>
+  <si>
+    <t>Gluconacetobacter diazotrophicus</t>
+  </si>
+  <si>
+    <t>Parvularcula_bermudensis</t>
+  </si>
+  <si>
+    <t>XM_002485578.1</t>
+  </si>
+  <si>
+    <t>HMEL013217</t>
+  </si>
+  <si>
+    <t>CP000514.1</t>
+  </si>
+  <si>
+    <t>CP021333.1</t>
+  </si>
+  <si>
+    <t>CP011026.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR719190.1 </t>
+  </si>
+  <si>
+    <t>FO834906.1</t>
+  </si>
+  <si>
+    <t>XM_004926774.3</t>
+  </si>
+  <si>
+    <t>Marinobacter hydrocarbonoclasticus</t>
+  </si>
+  <si>
+    <t>Marinobacter salarius</t>
+  </si>
+  <si>
+    <t>Pseudoalteromonas arctica</t>
+  </si>
+  <si>
+    <t>trichoderma reesei</t>
+  </si>
+  <si>
+    <t>XM_006963659.1</t>
+  </si>
+  <si>
+    <t>Erwinia_amylovora</t>
+  </si>
+  <si>
+    <t>Klebsiella_pneumoniae</t>
+  </si>
+  <si>
+    <t>Serratia_proteamaculans</t>
+  </si>
+  <si>
+    <t>AK387178.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AK378327.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -262,147 +564,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -417,157 +598,52 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="1">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -626,42 +702,314 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="28.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="61.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="2" width="9.14"/>
+    <col min="1" max="1" width="24.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="61.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="2" customWidth="1"/>
+    <col min="9" max="1025" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="59.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -687,7 +1035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -709,8 +1057,11 @@
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -732,8 +1083,11 @@
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -755,8 +1109,11 @@
       <c r="G6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -778,8 +1135,11 @@
       <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -801,8 +1161,11 @@
       <c r="G8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -824,8 +1187,11 @@
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -847,8 +1213,11 @@
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -870,8 +1239,11 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -893,8 +1265,11 @@
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -916,8 +1291,11 @@
       <c r="G13" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -925,10 +1303,13 @@
         <v>44</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -939,7 +1320,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -950,13 +1331,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -979,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,9 +1379,11 @@
       <c r="F22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1020,8 +1403,11 @@
         <v>57</v>
       </c>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1041,8 +1427,11 @@
         <v>59</v>
       </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1062,8 +1451,11 @@
         <v>61</v>
       </c>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1083,8 +1475,11 @@
         <v>63</v>
       </c>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1103,9 +1498,14 @@
       <c r="F27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1526,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1146,8 +1546,11 @@
         <v>69</v>
       </c>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
@@ -1168,7 +1571,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>40</v>
       </c>
@@ -1178,12 +1581,17 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
@@ -1203,8 +1611,11 @@
         <v>69</v>
       </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1219,7 +1630,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1235,12 +1646,734 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="D28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="D29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="D33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="D47" s="6"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D60" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>